--- a/src/test/java/com/mystore/testData/MyAddressModuleData.xlsx
+++ b/src/test/java/com/mystore/testData/MyAddressModuleData.xlsx
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">LoginEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginPassword</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -67,9 +61,6 @@
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">achrajeeontu12@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ontu</t>
   </si>
   <si>
@@ -125,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">fdfdA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">XYR</t>
@@ -171,12 +165,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Coll"/>
       <family val="0"/>
@@ -188,6 +176,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,27 +248,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,66 +277,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF6A8759"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -355,24 +285,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -415,260 +343,218 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="n">
+        <v>1912</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="2" t="n">
+        <v>54587148</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>8978545212</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1912</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>54587148</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>8978545212</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="n">
+        <v>19121514</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="2" t="n">
+        <v>54587148</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>8978545212</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>19121514</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>54587148</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>8978545212</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="achrajeeontu12@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="achrajeeontu12@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="achrajeeontu12@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="achrajeeontu12@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="achrajeeontu12@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="achrajeeontu12@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
